--- a/tmp/data.xlsx
+++ b/tmp/data.xlsx
@@ -17,37 +17,37 @@
     <t/>
   </si>
   <si>
-    <t>哈罗 0Column</t>
-  </si>
-  <si>
-    <t>哈罗 1Column</t>
-  </si>
-  <si>
-    <t>哈罗 2Column</t>
-  </si>
-  <si>
-    <t>哈罗 3Column</t>
-  </si>
-  <si>
-    <t>哈罗 4Column</t>
-  </si>
-  <si>
-    <t>哈罗 5Column</t>
-  </si>
-  <si>
-    <t>哈罗 6Column</t>
-  </si>
-  <si>
-    <t>哈罗 7Column</t>
-  </si>
-  <si>
-    <t>哈罗 8Column</t>
-  </si>
-  <si>
-    <t>哈罗 9Column</t>
-  </si>
-  <si>
-    <t>哈罗 10Column</t>
+    <t>HELLO0Column</t>
+  </si>
+  <si>
+    <t>HELLO1Column</t>
+  </si>
+  <si>
+    <t>HELLO2Column</t>
+  </si>
+  <si>
+    <t>HELLO3Column</t>
+  </si>
+  <si>
+    <t>HELLO4Column</t>
+  </si>
+  <si>
+    <t>HELLO5Column</t>
+  </si>
+  <si>
+    <t>HELLO6Column</t>
+  </si>
+  <si>
+    <t>HELLO7Column</t>
+  </si>
+  <si>
+    <t>HELLO8Column</t>
+  </si>
+  <si>
+    <t>HELLO9Column</t>
+  </si>
+  <si>
+    <t>HELLO10Column</t>
   </si>
   <si>
     <t>cell21</t>
@@ -6717,17 +6717,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.80625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.80625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.80625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.80625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.80625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.80625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.80625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.80625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.80625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.80625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="19.20625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.3958984375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.3958984375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.3958984375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.3958984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.3958984375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.3958984375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.3958984375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.3958984375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.3958984375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.3958984375"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.16640625"/>
   </cols>
   <sheetData>
     <row r="1">
